--- a/biology/Zoologie/Ariadna_crassipalpa/Ariadna_crassipalpa.xlsx
+++ b/biology/Zoologie/Ariadna_crassipalpa/Ariadna_crassipalpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna crassipalpa est une espèce d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna crassipalpa est une espèce d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blackwall, 1863 : Description of newly discovered spiders captured in Rio de Janeiro, by John Gray and the Rev. Hamlet Clark (continued). The Annals and magazine of natural history, sér. 3, vol. 11, p. 29-45 (texte intégral).</t>
         </is>
